--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -73,60 +79,60 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -142,61 +148,64 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -560,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -682,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -729,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -779,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8787878787878788</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,16 +909,16 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.5862068965517241</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>0.5166666666666667</v>
@@ -1079,38 +1088,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.4933333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6470588235294118</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6153846153846154</v>
+        <v>0.675</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.2916666666666667</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1297,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.2592592592592592</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>0.1666666666666667</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>0.1147540983606557</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>54</v>
-      </c>
-      <c r="K18">
-        <v>0.1463414634146341</v>
-      </c>
-      <c r="L18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1447,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.1408450704225352</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.09230769230769231</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>59</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,10 +1541,10 @@
         <v>0.5</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.07377049180327869</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L21">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1017</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1588,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4710144927536232</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.01807228915662651</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>652</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.01481481481481482</v>
+        <v>0.02108433734939759</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>532</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1688,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3829787234042553</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.01408450704225352</v>
+        <v>0.01792573623559539</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1738,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.00576036866359447</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1771,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1726</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1779,13 +1788,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3714285714285714</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1797,7 +1806,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26">
+        <v>0.005184331797235023</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1727</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1805,13 +1838,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3478260869565217</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1823,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1831,7 +1864,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3461538461538461</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -1849,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1857,13 +1890,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2916666666666667</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1875,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1883,13 +1916,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2857142857142857</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1901,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1909,13 +1942,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2857142857142857</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1927,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1935,13 +1968,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2564102564102564</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1953,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1961,13 +1994,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.141025641025641</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1979,7 +2012,59 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>67</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
